--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0288 - Admin SLN mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0288 - Admin SLN mengajukan data Non Sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED99E8D-3C57-447A-BDB4-EF561C109781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7360EC-5E82-4C95-B3FF-4DF8B502271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0288" sheetId="2" r:id="rId1"/>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -224,17 +224,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +578,7 @@
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -571,151 +588,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="15">
         <v>52326</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="15">
         <v>25860</v>
       </c>
-      <c r="M2" s="14" t="str">
+      <c r="M2" s="17" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-08-31</v>
-      </c>
-      <c r="N2" s="14" t="str">
-        <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-09-30</v>
-      </c>
-      <c r="O2" s="11" t="s">
+        <v>2022-09-02</v>
+      </c>
+      <c r="N2" s="17" t="str">
+        <f ca="1">TEXT(TODAY()+3,"yyyy-mm-dd")</f>
+        <v>2022-09-05</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="15">
         <v>25860</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="15">
         <v>25860</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="12">
         <v>2022</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -724,8 +745,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
